--- a/Questionaire.xlsx
+++ b/Questionaire.xlsx
@@ -87,64 +87,64 @@
     <t xml:space="preserve">I can seek information and run reports using UCCOSIS search engines  </t>
   </si>
   <si>
-    <t xml:space="preserve">I navigate UCCOSIS freely without assistance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I do have the basic skills necessary to use the UCCOSIS effectively </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The UCCOSIS is clear and understandable (“user friendly”) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using the UCCOSIS makes my job/task easier to perform </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The modules on the UCCOSIS software are easy to use or navigate  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The UCCOSIS is difficult to use  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overall, I expect the FREOS/DREOS to use the UCCOSIS with ease  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using the UCCOSIS improves the quality of my task/work  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using the UCCOSIS gives me greater control over my task </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using the UCCOSIS allows me to accomplish tasks more quickly </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using the UCCOSIS enhances my overall effectiveness in my job </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overall, the UCCOSIS is a useful tool for my work </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I need the UCCOSIS to enhance my work qualitatively  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am satisfied with the usage of the UCCOSIS in my job/task. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FREOS/DREOS should be trained regularly in UCCOSIS </t>
+    <t xml:space="preserve">I navigate UCCOSIS freely without assistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I do have the basic skills necessary to use the UCCOSIS effectively</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The UCCOSIS is clear and understandable (“user friendly”)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using the UCCOSIS makes my job/task easier to perform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The modules on the UCCOSIS software are easy to use or navigate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The UCCOSIS is difficult to use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall, I expect the FREOS/DREOS to use the UCCOSIS with ease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using the UCCOSIS improves the quality of my task/work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using the UCCOSIS gives me greater control over my task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using the UCCOSIS allows me to accomplish tasks more quickly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using the UCCOSIS enhances my overall effectiveness in my job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall, the UCCOSIS is a useful tool for my work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I need the UCCOSIS to enhance my work qualitatively</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am satisfied with the usage of the UCCOSIS in my job/task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREOS/DREOS should be trained regularly in UCCOSIS</t>
   </si>
   <si>
     <t xml:space="preserve">The UCCOSIS supports quality student records management</t>
   </si>
   <si>
-    <t xml:space="preserve">Overall, my attitude towards UCCOSIS usage is positive </t>
+    <t xml:space="preserve">Overall, my attitude towards UCCOSIS usage is positive</t>
   </si>
   <si>
     <t xml:space="preserve">The internet network does not support effective use of UCCOSIS</t>
   </si>
   <si>
-    <t xml:space="preserve">Overall, how satisfied were you with the presentation/training? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">How did you find the session overall? .</t>
+    <t xml:space="preserve">Overall, how satisfied were you with the presentation/training?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How did you find the session overall?</t>
   </si>
   <si>
     <t xml:space="preserve">Would you advocate for similar programmes/training in future?</t>
@@ -177,13 +177,13 @@
     <t xml:space="preserve">How to counsel on registration of courses in their portal</t>
   </si>
   <si>
-    <t>A(4)</t>
-  </si>
-  <si>
-    <t>SA(5)</t>
-  </si>
-  <si>
-    <t>N(3)</t>
+    <t>Agree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongly Agree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEUTRAL (Neither Agree nor Disagree)</t>
   </si>
   <si>
     <t>Satisfied</t>
@@ -195,7 +195,7 @@
     <t>21</t>
   </si>
   <si>
-    <t>SD(1)</t>
+    <t xml:space="preserve">Strongly Disagree</t>
   </si>
   <si>
     <t xml:space="preserve">It went very well</t>
@@ -207,7 +207,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>D(2)</t>
+    <t>Disagree</t>
   </si>
   <si>
     <t xml:space="preserve">Very satisfied</t>
@@ -900,26 +900,26 @@
     <tableColumn id="22" name="I can make data entry using the UCCOSIS software " uniqueName="22" dataDxfId="21"/>
     <tableColumn id="23" name="I can make data analysis using the UCCOSIS software " uniqueName="23" dataDxfId="22"/>
     <tableColumn id="24" name="I can seek information and run reports using UCCOSIS search engines  " uniqueName="24" dataDxfId="23"/>
-    <tableColumn id="25" name="I navigate UCCOSIS freely without assistance " uniqueName="25" dataDxfId="24"/>
-    <tableColumn id="26" name="I do have the basic skills necessary to use the UCCOSIS effectively " uniqueName="26" dataDxfId="25"/>
-    <tableColumn id="27" name="The UCCOSIS is clear and understandable (“user friendly”) " uniqueName="27" dataDxfId="26"/>
-    <tableColumn id="28" name="Using the UCCOSIS makes my job/task easier to perform " uniqueName="28" dataDxfId="27"/>
-    <tableColumn id="29" name="The modules on the UCCOSIS software are easy to use or navigate  " uniqueName="29" dataDxfId="28"/>
-    <tableColumn id="30" name="The UCCOSIS is difficult to use  " uniqueName="30" dataDxfId="29"/>
-    <tableColumn id="31" name="Overall, I expect the FREOS/DREOS to use the UCCOSIS with ease  " uniqueName="31" dataDxfId="30"/>
-    <tableColumn id="32" name="Using the UCCOSIS improves the quality of my task/work  " uniqueName="32" dataDxfId="31"/>
-    <tableColumn id="33" name="Using the UCCOSIS gives me greater control over my task " uniqueName="33" dataDxfId="32"/>
-    <tableColumn id="34" name="Using the UCCOSIS allows me to accomplish tasks more quickly " uniqueName="34" dataDxfId="33"/>
-    <tableColumn id="35" name="Using the UCCOSIS enhances my overall effectiveness in my job " uniqueName="35" dataDxfId="34"/>
-    <tableColumn id="36" name="Overall, the UCCOSIS is a useful tool for my work " uniqueName="36" dataDxfId="35"/>
-    <tableColumn id="37" name="I need the UCCOSIS to enhance my work qualitatively  " uniqueName="37" dataDxfId="36"/>
-    <tableColumn id="38" name="I am satisfied with the usage of the UCCOSIS in my job/task. " uniqueName="38" dataDxfId="37"/>
-    <tableColumn id="39" name="FREOS/DREOS should be trained regularly in UCCOSIS " uniqueName="39" dataDxfId="38"/>
+    <tableColumn id="25" name="I navigate UCCOSIS freely without assistance" uniqueName="25" dataDxfId="24"/>
+    <tableColumn id="26" name="I do have the basic skills necessary to use the UCCOSIS effectively" uniqueName="26" dataDxfId="25"/>
+    <tableColumn id="27" name="The UCCOSIS is clear and understandable (“user friendly”)" uniqueName="27" dataDxfId="26"/>
+    <tableColumn id="28" name="Using the UCCOSIS makes my job/task easier to perform" uniqueName="28" dataDxfId="27"/>
+    <tableColumn id="29" name="The modules on the UCCOSIS software are easy to use or navigate" uniqueName="29" dataDxfId="28"/>
+    <tableColumn id="30" name="The UCCOSIS is difficult to use" uniqueName="30" dataDxfId="29"/>
+    <tableColumn id="31" name="Overall, I expect the FREOS/DREOS to use the UCCOSIS with ease" uniqueName="31" dataDxfId="30"/>
+    <tableColumn id="32" name="Using the UCCOSIS improves the quality of my task/work" uniqueName="32" dataDxfId="31"/>
+    <tableColumn id="33" name="Using the UCCOSIS gives me greater control over my task" uniqueName="33" dataDxfId="32"/>
+    <tableColumn id="34" name="Using the UCCOSIS allows me to accomplish tasks more quickly" uniqueName="34" dataDxfId="33"/>
+    <tableColumn id="35" name="Using the UCCOSIS enhances my overall effectiveness in my job" uniqueName="35" dataDxfId="34"/>
+    <tableColumn id="36" name="Overall, the UCCOSIS is a useful tool for my work" uniqueName="36" dataDxfId="35"/>
+    <tableColumn id="37" name="I need the UCCOSIS to enhance my work qualitatively" uniqueName="37" dataDxfId="36"/>
+    <tableColumn id="38" name="I am satisfied with the usage of the UCCOSIS in my job/task" uniqueName="38" dataDxfId="37"/>
+    <tableColumn id="39" name="FREOS/DREOS should be trained regularly in UCCOSIS" uniqueName="39" dataDxfId="38"/>
     <tableColumn id="40" name="The UCCOSIS supports quality student records management" uniqueName="40" dataDxfId="39"/>
-    <tableColumn id="41" name="Overall, my attitude towards UCCOSIS usage is positive " uniqueName="41" dataDxfId="40"/>
+    <tableColumn id="41" name="Overall, my attitude towards UCCOSIS usage is positive" uniqueName="41" dataDxfId="40"/>
     <tableColumn id="42" name="The internet network does not support effective use of UCCOSIS" uniqueName="42" dataDxfId="41"/>
-    <tableColumn id="43" name="Overall, how satisfied were you with the presentation/training? " uniqueName="43" dataDxfId="42"/>
-    <tableColumn id="44" name="How did you find the session overall? ." uniqueName="44" dataDxfId="43"/>
+    <tableColumn id="43" name="Overall, how satisfied were you with the presentation/training?" uniqueName="43" dataDxfId="42"/>
+    <tableColumn id="44" name="How did you find the session overall?" uniqueName="44" dataDxfId="43"/>
     <tableColumn id="45" name="Would you advocate for similar programmes/training in future?" uniqueName="45" dataDxfId="44"/>
     <tableColumn id="46" name="General Suggestions " uniqueName="46" dataDxfId="45"/>
   </tableColumns>
@@ -1420,7 +1420,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="AL21" zoomScale="100" workbookViewId="0">
       <selection activeCell="L17" activeCellId="0" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -1457,19 +1457,19 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -1484,7 +1484,7 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -1508,70 +1508,70 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AN1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>40</v>
       </c>
       <c r="AP1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1618,74 +1618,74 @@
       <c r="P2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W2" s="1" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>54</v>
       </c>
       <c r="X2" s="1"/>
-      <c r="Y2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF2" s="1" t="s">
+      <c r="Y2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>54</v>
       </c>
       <c r="AG2" s="1"/>
-      <c r="AH2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AH2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
         <v>54</v>
       </c>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
-      <c r="AM2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AM2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP2" s="2" t="s">
         <v>56</v>
       </c>
       <c r="AQ2" s="1" t="s">
@@ -1746,82 +1746,82 @@
         <v>50</v>
       </c>
       <c r="P3" s="1"/>
-      <c r="Q3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD3" s="1" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AE3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AE3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP3" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AQ3" s="1" t="s">
@@ -1880,82 +1880,82 @@
         <v>50</v>
       </c>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Q4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Z4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD4" s="1" t="s">
+      <c r="Z4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AE4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP4" s="1" t="s">
+      <c r="AE4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP4" s="2" t="s">
         <v>56</v>
       </c>
       <c r="AQ4" s="1" t="s">
@@ -2016,82 +2016,82 @@
         <v>50</v>
       </c>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP5" s="1" t="s">
+      <c r="Q5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP5" s="2" t="s">
         <v>54</v>
       </c>
       <c r="AQ5" s="1" t="s">
@@ -2152,82 +2152,82 @@
       <c r="P6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA6" s="1" t="s">
+      <c r="Q6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AB6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AB6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AD6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP6" s="1" t="s">
+      <c r="AD6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP6" s="2" t="s">
         <v>56</v>
       </c>
       <c r="AQ6" s="1" t="s">
@@ -2288,82 +2288,82 @@
         <v>50</v>
       </c>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA7" s="1" t="s">
+      <c r="Q7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AB7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AB7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AE7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP7" s="1" t="s">
+      <c r="AE7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP7" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AQ7" s="1" t="s">
@@ -2422,82 +2422,82 @@
         <v>50</v>
       </c>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD8" s="1" t="s">
+      <c r="Q8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AE8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP8" s="1" t="s">
+      <c r="AE8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP8" s="2" t="s">
         <v>54</v>
       </c>
       <c r="AQ8" s="1" t="s">
@@ -2552,82 +2552,82 @@
         <v>50</v>
       </c>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD9" s="1" t="s">
+      <c r="Q9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AE9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP9" s="1" t="s">
+      <c r="AE9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP9" s="2" t="s">
         <v>54</v>
       </c>
       <c r="AQ9" s="1" t="s">
@@ -2686,82 +2686,82 @@
         <v>50</v>
       </c>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD10" s="1" t="s">
+      <c r="Q10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AE10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP10" s="1" t="s">
+      <c r="AE10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP10" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AQ10" s="1" t="s">
@@ -2818,82 +2818,82 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W11" s="1" t="s">
+      <c r="Q11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="X11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Y11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP11" s="1" t="s">
+      <c r="Y11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP11" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AQ11" s="1" t="s">
@@ -2956,82 +2956,82 @@
       <c r="P12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD12" s="1" t="s">
+      <c r="Q12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AE12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP12" s="1" t="s">
+      <c r="AE12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP12" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AQ12" s="1" t="s">
@@ -3092,82 +3092,82 @@
         <v>50</v>
       </c>
       <c r="P13" s="1"/>
-      <c r="Q13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD13" s="1" t="s">
+      <c r="Q13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AE13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP13" s="1" t="s">
+      <c r="AE13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP13" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AQ13" s="1" t="s">
@@ -3226,82 +3226,82 @@
       <c r="P14" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD14" s="1" t="s">
+      <c r="Q14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AE14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP14" s="1" t="s">
+      <c r="AE14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP14" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AQ14" s="1" t="s">
@@ -3362,82 +3362,82 @@
         <v>50</v>
       </c>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X15" s="1" t="s">
+      <c r="Q15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Y15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD15" s="1" t="s">
+      <c r="Y15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AE15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP15" s="1" t="s">
+      <c r="AE15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP15" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AQ15" s="1" t="s">
@@ -3496,82 +3496,82 @@
       <c r="P16" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="Q16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD16" s="1" t="s">
+      <c r="Q16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AE16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP16" s="1" t="s">
+      <c r="AE16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP16" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AQ16" s="1" t="s">
@@ -3628,82 +3628,82 @@
         <v>50</v>
       </c>
       <c r="P17" s="1"/>
-      <c r="Q17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD17" s="1" t="s">
+      <c r="Q17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AE17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP17" s="1" t="s">
+      <c r="AE17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP17" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AQ17" s="1" t="s">
@@ -3762,82 +3762,82 @@
         <v>50</v>
       </c>
       <c r="P18" s="1"/>
-      <c r="Q18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP18" s="1" t="s">
+      <c r="Q18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="AQ18" s="1" t="s">
@@ -3896,82 +3896,82 @@
         <v>50</v>
       </c>
       <c r="P19" s="1"/>
-      <c r="Q19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y19" s="1" t="s">
+      <c r="Q19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Z19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD19" s="1" t="s">
+      <c r="Z19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AE19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP19" s="1" t="s">
+      <c r="AE19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP19" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AQ19" s="1"/>
@@ -4024,82 +4024,82 @@
         <v>50</v>
       </c>
       <c r="P20" s="1"/>
-      <c r="Q20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z20" s="1" t="s">
+      <c r="Q20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z20" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AA20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP20" s="1" t="s">
+      <c r="AA20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP20" s="2" t="s">
         <v>54</v>
       </c>
       <c r="AQ20" s="1" t="s">
@@ -4160,82 +4160,82 @@
         <v>50</v>
       </c>
       <c r="P21" s="1"/>
-      <c r="Q21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD21" s="1" t="s">
+      <c r="Q21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AE21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP21" s="1" t="s">
+      <c r="AE21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP21" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AQ21" s="1" t="s">
@@ -4296,82 +4296,82 @@
         <v>50</v>
       </c>
       <c r="P22" s="1"/>
-      <c r="Q22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X22" s="1" t="s">
+      <c r="Q22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Y22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP22" s="1" t="s">
+      <c r="Y22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP22" s="2" t="s">
         <v>54</v>
       </c>
       <c r="AQ22" s="1" t="s">
@@ -4428,82 +4428,82 @@
         <v>50</v>
       </c>
       <c r="P23" s="1"/>
-      <c r="Q23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U23" s="1" t="s">
+      <c r="Q23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD23" s="1" t="s">
+      <c r="V23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AE23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP23" s="1" t="s">
+      <c r="AE23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP23" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AQ23" s="1" t="s">
@@ -4564,82 +4564,82 @@
         <v>50</v>
       </c>
       <c r="P24" s="1"/>
-      <c r="Q24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP24" s="1" t="s">
+      <c r="Q24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP24" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AQ24" s="1" t="s">
@@ -4698,82 +4698,82 @@
         <v>50</v>
       </c>
       <c r="P25" s="1"/>
-      <c r="Q25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD25" s="1" t="s">
+      <c r="Q25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AE25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP25" s="1" t="s">
+      <c r="AE25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP25" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AQ25" s="1" t="s">
@@ -4832,82 +4832,82 @@
         <v>50</v>
       </c>
       <c r="P26" s="1"/>
-      <c r="Q26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD26" s="1" t="s">
+      <c r="Q26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AE26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP26" s="1" t="s">
+      <c r="AE26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP26" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AQ26" s="1" t="s">
@@ -4964,82 +4964,82 @@
         <v>50</v>
       </c>
       <c r="P27" s="1"/>
-      <c r="Q27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U27" s="1" t="s">
+      <c r="Q27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U27" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD27" s="1" t="s">
+      <c r="V27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AE27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP27" s="1" t="s">
+      <c r="AE27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP27" s="2" t="s">
         <v>56</v>
       </c>
       <c r="AQ27" s="1" t="s">
@@ -5092,82 +5092,82 @@
       <c r="P28" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP28" s="1" t="s">
+      <c r="Q28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP28" s="2" t="s">
         <v>54</v>
       </c>
       <c r="AQ28" s="1" t="s">
@@ -5226,19 +5226,19 @@
         <v>50</v>
       </c>
       <c r="P29" s="1"/>
-      <c r="Q29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U29" s="1" t="s">
+      <c r="Q29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U29" s="2" t="s">
         <v>54</v>
       </c>
       <c r="V29" s="1"/>
@@ -5322,82 +5322,82 @@
       <c r="P30" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="Q30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA30" s="1" t="s">
+      <c r="Q30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AB30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC30" s="1" t="s">
+      <c r="AB30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AD30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP30" s="1" t="s">
+      <c r="AD30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP30" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AQ30" s="1" t="s">
@@ -5458,82 +5458,82 @@
         <v>50</v>
       </c>
       <c r="P31" s="1"/>
-      <c r="Q31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD31" s="1" t="s">
+      <c r="Q31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AE31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP31" s="1" t="s">
+      <c r="AE31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP31" s="2" t="s">
         <v>64</v>
       </c>
       <c r="AQ31" s="1" t="s">
@@ -5590,82 +5590,82 @@
       </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-      <c r="Q32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="W32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD32" s="1" t="s">
+      <c r="Q32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AE32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP32" s="1" t="s">
+      <c r="AE32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP32" s="2" t="s">
         <v>54</v>
       </c>
       <c r="AQ32" s="1" t="s">
@@ -5726,19 +5726,19 @@
         <v>50</v>
       </c>
       <c r="P33" s="1"/>
-      <c r="Q33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U33" s="1" t="s">
+      <c r="Q33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U33" s="2" t="s">
         <v>54</v>
       </c>
       <c r="V33" s="1"/>
@@ -5820,82 +5820,82 @@
         <v>50</v>
       </c>
       <c r="P34" s="1"/>
-      <c r="Q34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD34" s="1" t="s">
+      <c r="Q34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AE34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP34" s="1" t="s">
+      <c r="AE34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP34" s="2" t="s">
         <v>64</v>
       </c>
       <c r="AQ34" s="1" t="s">
@@ -5956,82 +5956,82 @@
       <c r="P35" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="Q35" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U35" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z35" s="1" t="s">
+      <c r="Q35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z35" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AA35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD35" s="1" t="s">
+      <c r="AA35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AE35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM35" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP35" s="1" t="s">
+      <c r="AE35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP35" s="2" t="s">
         <v>54</v>
       </c>
       <c r="AQ35" s="1" t="s">
@@ -6092,82 +6092,82 @@
         <v>50</v>
       </c>
       <c r="P36" s="1"/>
-      <c r="Q36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U36" s="1" t="s">
+      <c r="Q36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U36" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP36" s="1" t="s">
+      <c r="V36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP36" s="2" t="s">
         <v>64</v>
       </c>
       <c r="AQ36" s="1" t="s">
@@ -6228,82 +6228,82 @@
         <v>50</v>
       </c>
       <c r="P37" s="1"/>
-      <c r="Q37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP37" s="1" t="s">
+      <c r="Q37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP37" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AQ37" s="1" t="s">
@@ -6360,82 +6360,82 @@
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
-      <c r="Q38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T38" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="U38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="V38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC38" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD38" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP38" s="1" t="s">
+      <c r="Q38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP38" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AQ38" s="1" t="s">
@@ -6492,82 +6492,82 @@
         <v>50</v>
       </c>
       <c r="P39" s="1"/>
-      <c r="Q39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="V39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD39" s="1" t="s">
+      <c r="Q39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD39" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AE39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP39" s="1" t="s">
+      <c r="AE39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP39" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AQ39" s="1" t="s">
@@ -6628,80 +6628,80 @@
         <v>50</v>
       </c>
       <c r="P40" s="1"/>
-      <c r="Q40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S40" s="1" t="s">
+      <c r="Q40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S40" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="T40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA40" s="1" t="s">
+      <c r="T40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA40" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AB40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC40" s="1" t="s">
+      <c r="AB40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC40" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AD40" s="1"/>
-      <c r="AE40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP40" s="1" t="s">
+      <c r="AE40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP40" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AQ40" s="1" t="s">
@@ -6760,82 +6760,82 @@
         <v>50</v>
       </c>
       <c r="P41" s="1"/>
-      <c r="Q41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="V41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP41" s="1" t="s">
+      <c r="Q41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP41" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AQ41" s="1" t="s">
@@ -6896,19 +6896,19 @@
         <v>50</v>
       </c>
       <c r="P42" s="1"/>
-      <c r="Q42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U42" s="1" t="s">
+      <c r="Q42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U42" s="2" t="s">
         <v>56</v>
       </c>
       <c r="V42" s="1"/>
@@ -6968,78 +6968,78 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
-      <c r="Q43" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="U43" s="1" t="s">
+      <c r="Q43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="U43" s="2" t="s">
         <v>55</v>
       </c>
       <c r="V43" s="1"/>
-      <c r="W43" s="1" t="s">
+      <c r="W43" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="X43" s="1" t="s">
+      <c r="X43" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Y43" s="1" t="s">
+      <c r="Y43" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Z43" s="1" t="s">
+      <c r="Z43" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AA43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD43" s="1" t="s">
+      <c r="AA43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD43" s="2" t="s">
         <v>56</v>
       </c>
       <c r="AE43" s="1"/>
-      <c r="AF43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK43" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM43" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP43" s="1" t="s">
+      <c r="AF43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP43" s="2" t="s">
         <v>54</v>
       </c>
       <c r="AQ43" s="1"/>
@@ -7094,16 +7094,16 @@
         <v>50</v>
       </c>
       <c r="P44" s="1"/>
-      <c r="Q44" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T44" s="1" t="s">
+      <c r="Q44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T44" s="2" t="s">
         <v>54</v>
       </c>
       <c r="U44" s="1"/>
@@ -7186,82 +7186,82 @@
         <v>50</v>
       </c>
       <c r="P45" s="1"/>
-      <c r="Q45" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U45" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X45" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD45" s="1" t="s">
+      <c r="Q45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD45" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AE45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG45" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK45" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM45" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN45" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO45" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP45" s="1" t="s">
+      <c r="AE45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP45" s="2" t="s">
         <v>64</v>
       </c>
       <c r="AQ45" s="1" t="s">
@@ -7320,82 +7320,82 @@
         <v>52</v>
       </c>
       <c r="P46" s="1"/>
-      <c r="Q46" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="U46" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V46" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC46" s="1" t="s">
+      <c r="Q46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC46" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AD46" s="1" t="s">
+      <c r="AD46" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AE46" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF46" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG46" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH46" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI46" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ46" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK46" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL46" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM46" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN46" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO46" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP46" s="1" t="s">
+      <c r="AE46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP46" s="2" t="s">
         <v>64</v>
       </c>
       <c r="AQ46" s="1" t="s">
@@ -7454,19 +7454,19 @@
         <v>50</v>
       </c>
       <c r="P47" s="1"/>
-      <c r="Q47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U47" s="1" t="s">
+      <c r="Q47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U47" s="2" t="s">
         <v>55</v>
       </c>
       <c r="V47" s="1"/>
@@ -7546,82 +7546,82 @@
         <v>50</v>
       </c>
       <c r="P48" s="1"/>
-      <c r="Q48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD48" s="1" t="s">
+      <c r="Q48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD48" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AE48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP48" s="1" t="s">
+      <c r="AE48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP48" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AQ48" s="1" t="s">
@@ -7682,31 +7682,31 @@
         <v>50</v>
       </c>
       <c r="P49" s="1"/>
-      <c r="Q49" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T49" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U49" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y49" s="1" t="s">
+      <c r="Q49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y49" s="2" t="s">
         <v>54</v>
       </c>
       <c r="Z49" s="1"/>
@@ -7776,82 +7776,82 @@
         <v>50</v>
       </c>
       <c r="P50" s="1"/>
-      <c r="Q50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U50" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="V50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA50" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB50" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC50" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD50" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE50" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP50" s="1" t="s">
+      <c r="Q50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP50" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AQ50" s="1" t="s">
@@ -7910,19 +7910,19 @@
         <v>50</v>
       </c>
       <c r="P51" s="1"/>
-      <c r="Q51" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T51" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U51" s="1" t="s">
+      <c r="Q51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U51" s="2" t="s">
         <v>54</v>
       </c>
       <c r="V51" s="1"/>
@@ -8002,82 +8002,82 @@
         <v>50</v>
       </c>
       <c r="P52" s="1"/>
-      <c r="Q52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U52" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD52" s="1" t="s">
+      <c r="Q52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD52" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AE52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM52" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP52" s="1" t="s">
+      <c r="AE52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP52" s="2" t="s">
         <v>56</v>
       </c>
       <c r="AQ52" s="1" t="s">
@@ -8130,80 +8130,80 @@
         <v>50</v>
       </c>
       <c r="P53" s="1"/>
-      <c r="Q53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ53" s="1" t="s">
+      <c r="Q53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA53" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ53" s="2" t="s">
         <v>54</v>
       </c>
       <c r="AK53" s="1"/>
-      <c r="AL53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP53" s="1" t="s">
+      <c r="AL53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP53" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AQ53" s="1" t="s">
@@ -8260,82 +8260,82 @@
         <v>50</v>
       </c>
       <c r="P54" s="1"/>
-      <c r="Q54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD54" s="1" t="s">
+      <c r="Q54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD54" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AE54" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI54" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM54" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP54" s="1" t="s">
+      <c r="AE54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP54" s="2" t="s">
         <v>54</v>
       </c>
       <c r="AQ54" s="1" t="s">
@@ -8394,79 +8394,79 @@
         <v>50</v>
       </c>
       <c r="P55" s="1"/>
-      <c r="Q55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO55" s="1" t="s">
+      <c r="Q55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB55" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC55" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD55" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL55" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO55" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AP55" s="1"/>
@@ -8526,82 +8526,82 @@
         <v>50</v>
       </c>
       <c r="P56" s="1"/>
-      <c r="Q56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U56" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="V56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W56" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X56" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA56" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC56" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD56" s="1" t="s">
+      <c r="Q56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD56" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AE56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI56" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP56" s="1" t="s">
+      <c r="AE56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP56" s="2" t="s">
         <v>56</v>
       </c>
       <c r="AQ56" s="1" t="s">
@@ -8662,78 +8662,78 @@
       <c r="P57" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Q57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="V57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD57" s="1" t="s">
+      <c r="Q57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD57" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AE57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG57" s="1" t="s">
+      <c r="AE57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG57" s="2" t="s">
         <v>54</v>
       </c>
       <c r="AH57" s="1"/>
-      <c r="AI57" s="1" t="s">
+      <c r="AI57" s="2" t="s">
         <v>54</v>
       </c>
       <c r="AJ57" s="1"/>
-      <c r="AK57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP57" s="1" t="s">
+      <c r="AK57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP57" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AQ57" s="1" t="s">
@@ -8792,82 +8792,82 @@
         <v>50</v>
       </c>
       <c r="P58" s="1"/>
-      <c r="Q58" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="V58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA58" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD58" s="1" t="s">
+      <c r="Q58" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA58" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD58" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AE58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP58" s="1" t="s">
+      <c r="AE58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP58" s="2" t="s">
         <v>64</v>
       </c>
       <c r="AQ58" s="1" t="s">
@@ -8926,19 +8926,19 @@
       </c>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
-      <c r="Q59" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S59" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T59" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U59" s="1" t="s">
+      <c r="Q59" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S59" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U59" s="2" t="s">
         <v>55</v>
       </c>
       <c r="V59" s="1"/>
@@ -9018,79 +9018,79 @@
         <v>50</v>
       </c>
       <c r="P60" s="1"/>
-      <c r="Q60" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R60" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S60" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T60" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U60" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V60" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W60" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X60" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y60" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z60" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA60" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB60" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC60" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD60" s="1" t="s">
+      <c r="Q60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD60" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AE60" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF60" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG60" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH60" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI60" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ60" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK60" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL60" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM60" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN60" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO60" s="1" t="s">
+      <c r="AE60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO60" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AP60" s="1"/>
@@ -9148,82 +9148,82 @@
         <v>50</v>
       </c>
       <c r="P61" s="1"/>
-      <c r="Q61" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U61" s="1" t="s">
+      <c r="Q61" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U61" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD61" s="1" t="s">
+      <c r="V61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD61" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AE61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM61" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP61" s="1" t="s">
+      <c r="AE61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM61" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP61" s="2" t="s">
         <v>54</v>
       </c>
       <c r="AQ61" s="1" t="s">
@@ -9280,82 +9280,82 @@
       </c>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
-      <c r="Q62" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R62" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S62" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T62" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U62" s="1" t="s">
+      <c r="Q62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U62" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W62" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X62" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y62" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z62" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA62" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB62" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC62" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD62" s="1" t="s">
+      <c r="V62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X62" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB62" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC62" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD62" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AE62" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF62" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG62" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH62" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI62" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ62" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK62" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL62" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM62" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN62" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO62" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP62" s="1" t="s">
+      <c r="AE62" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF62" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG62" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH62" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI62" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL62" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP62" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AQ62" s="1" t="s">
@@ -9414,82 +9414,82 @@
         <v>50</v>
       </c>
       <c r="P63" s="1"/>
-      <c r="Q63" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R63" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S63" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T63" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U63" s="1" t="s">
+      <c r="Q63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U63" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W63" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X63" s="1" t="s">
+      <c r="V63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X63" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Y63" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z63" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA63" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB63" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC63" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD63" s="1" t="s">
+      <c r="Y63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z63" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB63" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC63" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD63" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AE63" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF63" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG63" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH63" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI63" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ63" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK63" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL63" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM63" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN63" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO63" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP63" s="1" t="s">
+      <c r="AE63" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF63" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG63" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH63" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI63" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK63" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL63" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN63" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP63" s="2" t="s">
         <v>54</v>
       </c>
       <c r="AQ63" s="1" t="s">
@@ -9550,82 +9550,82 @@
       <c r="P64" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="Q64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S64" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T64" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V64" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="W64" s="1" t="s">
+      <c r="Q64" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S64" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T64" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U64" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V64" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W64" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="X64" s="1" t="s">
+      <c r="X64" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Y64" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z64" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB64" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC64" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD64" s="1" t="s">
+      <c r="Y64" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z64" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA64" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB64" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC64" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD64" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AE64" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL64" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN64" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO64" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP64" s="1" t="s">
+      <c r="AE64" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF64" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG64" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH64" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI64" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ64" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK64" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL64" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM64" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN64" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO64" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP64" s="2" t="s">
         <v>64</v>
       </c>
       <c r="AQ64" s="1" t="s">
@@ -9686,82 +9686,82 @@
         <v>50</v>
       </c>
       <c r="P65" s="1"/>
-      <c r="Q65" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R65" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="V65" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W65" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM65" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN65" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO65" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP65" s="1" t="s">
+      <c r="Q65" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R65" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V65" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W65" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM65" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN65" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO65" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP65" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AQ65" s="1" t="s">
@@ -9806,82 +9806,82 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
-      <c r="Q66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U66" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK66" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP66" s="1" t="s">
+      <c r="Q66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U66" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK66" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP66" s="2" t="s">
         <v>54</v>
       </c>
       <c r="AQ66" s="1" t="s">
@@ -9898,7 +9898,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
